--- a/AfDD_2023_Country_groupings.xlsx
+++ b/AfDD_2023_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Country_groupings.xlsx
+++ b/AfDD_2023_Country_groupings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E83D92-9488-4CB6-B1AD-74BA27EE7046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD9D342-813A-4579-AB91-6B2FA147A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFA2AFB-2140-4C20-87A7-B63623B58DAC}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{BBA65B77-2F7E-4058-AB29-37646C2B6A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Country groupings'!$A$1:$AA$196</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="477">
   <si>
     <t>Back to Contents</t>
   </si>
@@ -1577,7 +1579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1F0DE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,9 +1596,11 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2023,7 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2674F990-F376-4C0E-9BD8-1EEA9E6D5FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD875129-FEC1-48F2-A5D8-4259A5E1ACE4}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:AA215"/>
   <sheetViews>
@@ -7808,9 +7812,7 @@
       <c r="V71" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="W71" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="W71" s="16"/>
       <c r="X71" s="16" t="s">
         <v>43</v>
       </c>
@@ -18468,10 +18470,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{809AFF8E-2AD2-4257-959C-A4F3FD0495CA}"/>
-    <hyperlink ref="B211" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{99C29C98-FE3C-4E34-BA9E-A6EB888C0733}"/>
-    <hyperlink ref="B214" r:id="rId2" xr:uid="{A82EEA4E-EE1D-409B-ABF0-EDDA1962634C}"/>
-    <hyperlink ref="B213" r:id="rId3" xr:uid="{C6C70D71-1466-4A51-B559-D7B0A55DEC61}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{821396D1-C115-4322-8B36-E72A4F3BD196}"/>
+    <hyperlink ref="B214" r:id="rId1" xr:uid="{0148A764-AFF4-4E8F-BF77-BAABEC86CE4F}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{6F76AEDA-86E6-4065-90DD-AF6F0234CBEB}"/>
+    <hyperlink ref="B211" r:id="rId3" xr:uid="{DED07FCD-C3FD-43CC-BAE1-1F4FB0D389DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Country_groupings.xlsx
+++ b/AfDD_2023_Country_groupings.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD9D342-813A-4579-AB91-6B2FA147A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C5A202A-4ED0-4093-B571-1E29604BE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{BBA65B77-2F7E-4058-AB29-37646C2B6A58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77911907-EE7C-4AE9-877D-08CD3A0A309C}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2027,8 +2027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD875129-FEC1-48F2-A5D8-4259A5E1ACE4}">
-  <sheetPr codeName="Sheet20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B6BCA3-7D23-41E1-A26C-5E9312DB6234}">
   <dimension ref="A1:AA215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -18470,10 +18469,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{821396D1-C115-4322-8B36-E72A4F3BD196}"/>
-    <hyperlink ref="B214" r:id="rId1" xr:uid="{0148A764-AFF4-4E8F-BF77-BAABEC86CE4F}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{6F76AEDA-86E6-4065-90DD-AF6F0234CBEB}"/>
-    <hyperlink ref="B211" r:id="rId3" xr:uid="{DED07FCD-C3FD-43CC-BAE1-1F4FB0D389DD}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{6D5A63B7-84ED-45D8-998C-57C1DB1ED96F}"/>
+    <hyperlink ref="B214" r:id="rId1" xr:uid="{A670CDC2-506C-4745-AF7D-BB099531C99B}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{E8A69D81-663F-4AB7-B486-1D242A2F135C}"/>
+    <hyperlink ref="B211" r:id="rId3" xr:uid="{0E40D8EC-E187-4DA8-A01E-B8342803A44C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Country_groupings.xlsx
+++ b/AfDD_2023_Country_groupings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB5B652-410B-45F8-83FE-1AFE84090D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62ADAC86-EF16-4CF5-A709-C35E3204D243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{338BFC4D-AD6C-4ABA-9DED-DDE83DCCC1A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{67B9A320-CFBA-449D-91C5-D242AAD99781}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -2030,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597A884-174E-4D82-BCA5-F3FAC292E67B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC30FD-2D99-43B5-80B0-E9F04D2A8B56}">
   <dimension ref="A1:AA215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -18474,10 +18474,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{A0DE02C3-FAA1-492D-B772-1B064A4EC2F8}"/>
-    <hyperlink ref="B214" r:id="rId1" xr:uid="{D352C274-F442-4AAE-B69F-81585621FAFF}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{ED6030DD-511D-4D78-B1E4-83AA59BAD23E}"/>
-    <hyperlink ref="B211" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{8529931E-D843-4CC0-AA34-1CDBEECB2155}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{BCCE32C2-2DFB-4ED0-976B-380751E578BF}"/>
+    <hyperlink ref="B214" r:id="rId1" xr:uid="{CA8AB802-54C0-4B45-BEE5-4F8B9763B409}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{F9BACFDB-38D8-4680-A002-8040D83C44CF}"/>
+    <hyperlink ref="B211" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{8CECF2F7-9EED-432B-B604-5B37B82AE30C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Country_groupings.xlsx
+++ b/AfDD_2023_Country_groupings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62ADAC86-EF16-4CF5-A709-C35E3204D243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA14143-F28F-497A-B29E-407975FC48D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{67B9A320-CFBA-449D-91C5-D242AAD99781}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{3BFA8468-3E9E-4345-B41D-36868D26F27B}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>Least Developed Countries (LDC)(8)</t>
   </si>
   <si>
-    <t>Fragility (2020 OECD report)(9)</t>
+    <t>Fragility (2022 OECD report)(9)</t>
   </si>
   <si>
     <t>Common Market for Eastern and Southern Africa (COMESA)(10)</t>
@@ -164,7 +164,7 @@
     <t>Least Developed Countries</t>
   </si>
   <si>
-    <t>Extremely Fragile</t>
+    <t>Extremely fragile</t>
   </si>
   <si>
     <t/>
@@ -1454,7 +1454,7 @@
     <t>8. In addition to defining countries as LLDC and SIDS, the UN-OHRLLS also classifies some countries as "Least Developed Countries (LDC)" as of June 2023. This categorisation of countries was officially established in 1971, by the UN General Assembly, and represents countries that face low levels of socio-economic development. Countries are designated as LDC countries based on income criteria, the health and education of their populations, and their economic vulnerability.</t>
   </si>
   <si>
-    <t>9. Countries classified as "fragile states" and "extremely fragile states" in the States of Fragility 2022 report produced by the OECD.</t>
+    <t>9. Countries classified as "fragile states" and "Extremely fragile states" in the States of Fragility 2022 report produced by the OECD.</t>
   </si>
   <si>
     <t>10. Eight regional economic communities of African nations recognized by the African Union. ASEAN, a grouping of Asian countries, Mercosur, a grouping of Latin American communities, the countries of the European Union and the OECD are added for comparison. Aggregate figures for PALOP countries were included in response to a request from members of this country grouping.</t>
@@ -2030,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC30FD-2D99-43B5-80B0-E9F04D2A8B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969C6442-4416-419C-9992-10DAC3A01E7B}">
   <dimension ref="A1:AA215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -18473,11 +18473,12 @@
       <c r="L215"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA196" xr:uid="{00000000-0001-0000-2100-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{BCCE32C2-2DFB-4ED0-976B-380751E578BF}"/>
-    <hyperlink ref="B214" r:id="rId1" xr:uid="{CA8AB802-54C0-4B45-BEE5-4F8B9763B409}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{F9BACFDB-38D8-4680-A002-8040D83C44CF}"/>
-    <hyperlink ref="B211" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{8CECF2F7-9EED-432B-B604-5B37B82AE30C}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents" xr:uid="{FD10001F-6369-404A-8FC9-8AFB89AC5540}"/>
+    <hyperlink ref="B214" r:id="rId1" xr:uid="{D2C62451-0D6E-402D-BD03-4B94FBA03B74}"/>
+    <hyperlink ref="B213" r:id="rId2" xr:uid="{A03AFF30-4141-45D6-826F-5A0C603260B8}"/>
+    <hyperlink ref="B211" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F3E792B0-AE58-42F2-BEB5-206E2507968A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2023_Country_groupings.xlsx
+++ b/AfDD_2023_Country_groupings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3AA630-1D41-407C-A3AF-F7A016D0A1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F0250-395D-4B1F-A790-7284DDE351AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3EC5EE79-C970-44A7-94F8-33451812D3B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{1C6D5A5B-E6EF-4B99-B6A5-4719C89AE7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2014,22 +2014,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88965418-1D92-4459-8CAC-BD5108AEDDA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E162299F-42E9-47E9-BC15-97C5380E076D}">
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="12" width="18.26953125" style="27" customWidth="1"/>
-    <col min="13" max="27" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="12" width="18.21875" style="27" customWidth="1"/>
+    <col min="13" max="27" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>58</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>75</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>85</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>88</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>90</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>92</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>94</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>96</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>98</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>100</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>102</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>104</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>109</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>111</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>113</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>115</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>117</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>119</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>122</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>124</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>126</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>131</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>133</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>135</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>137</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>139</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>141</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>143</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>145</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>147</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>149</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>152</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>154</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>156</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>158</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>160</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>162</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>164</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>166</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>168</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>171</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>173</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>175</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>177</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>179</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>181</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>183</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>185</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>187</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>189</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>191</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>193</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>195</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>197</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>199</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>201</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>203</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>205</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>207</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>209</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>211</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>213</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>215</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>217</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>219</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>221</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>223</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>225</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>227</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>229</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>231</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>233</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>235</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>237</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>239</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>241</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>243</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>245</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>247</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>249</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>251</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>253</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>255</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>257</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>259</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>261</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>263</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>265</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>267</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>269</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>271</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>273</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>275</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>277</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>279</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>281</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>283</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>285</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>287</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>289</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>291</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>293</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>295</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>297</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>299</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>301</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>303</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>305</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>307</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>309</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>311</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>313</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>315</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>317</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>319</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>321</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>323</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>325</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>327</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>329</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>331</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>333</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>335</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>337</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>339</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>341</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>343</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>345</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>347</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>349</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>351</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>353</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>355</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>357</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>359</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>361</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>363</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>365</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>367</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>369</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>371</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>373</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>375</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>377</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>379</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>381</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>383</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>385</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>387</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>389</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>391</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>393</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>395</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>397</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>399</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>401</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>403</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>405</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>407</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>409</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>411</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>413</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>415</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>417</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>419</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>421</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>423</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>425</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>427</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>429</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>431</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>433</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>435</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>437</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>439</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>441</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>443</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>445</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>447</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>449</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>451</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>453</v>
       </c>
@@ -17829,7 +17829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>455</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>457</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>459</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>461</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:27" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" s="22" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B196" s="23"/>
       <c r="C196" s="24"/>
       <c r="D196" s="25"/>
@@ -18189,7 +18189,7 @@
       <c r="Z196" s="25"/>
       <c r="AA196" s="25"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>463</v>
       </c>
@@ -18206,7 +18206,7 @@
       <c r="U197" s="27"/>
       <c r="V197" s="27"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>464</v>
       </c>
@@ -18223,7 +18223,7 @@
       <c r="U198" s="27"/>
       <c r="V198" s="27"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>465</v>
       </c>
@@ -18240,7 +18240,7 @@
       <c r="U199" s="27"/>
       <c r="V199" s="27"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>466</v>
       </c>
@@ -18257,7 +18257,7 @@
       <c r="U200" s="27"/>
       <c r="V200" s="27"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>467</v>
       </c>
@@ -18274,7 +18274,7 @@
       <c r="U201" s="27"/>
       <c r="V201" s="27"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>468</v>
       </c>
@@ -18291,7 +18291,7 @@
       <c r="U202" s="27"/>
       <c r="V202" s="27"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>469</v>
       </c>
@@ -18308,7 +18308,7 @@
       <c r="U203" s="27"/>
       <c r="V203" s="27"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>470</v>
       </c>
@@ -18325,7 +18325,7 @@
       <c r="U204" s="27"/>
       <c r="V204" s="27"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>471</v>
       </c>
@@ -18342,7 +18342,7 @@
       <c r="U205" s="27"/>
       <c r="V205" s="27"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>472</v>
       </c>
@@ -18359,7 +18359,7 @@
       <c r="U206" s="27"/>
       <c r="V206" s="27"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B207" s="26"/>
       <c r="G207"/>
       <c r="H207"/>
@@ -18373,20 +18373,20 @@
       <c r="U207" s="27"/>
       <c r="V207" s="27"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="28" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B210" s="29" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
         <v>475</v>
       </c>
@@ -18401,7 +18401,7 @@
       <c r="K212"/>
       <c r="L212"/>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
         <v>476</v>
       </c>
@@ -18416,7 +18416,7 @@
       <c r="K213"/>
       <c r="L213"/>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C214"/>
       <c r="D214"/>
       <c r="E214"/>
@@ -18430,9 +18430,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B213" r:id="rId1" xr:uid="{925BFABE-0D5B-435B-A3DE-6F9547655ACA}"/>
-    <hyperlink ref="B212" r:id="rId2" xr:uid="{45844AE7-4C35-42C5-9666-9DF9164F7AE6}"/>
-    <hyperlink ref="B210" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{1909C620-F83B-4B39-A5CD-C0069E0DC7C3}"/>
+    <hyperlink ref="B213" r:id="rId1" xr:uid="{A581BDE0-D56D-40EA-B9B4-E2A42469252E}"/>
+    <hyperlink ref="B212" r:id="rId2" xr:uid="{51FE4353-D2BD-4593-891D-ABD125848496}"/>
+    <hyperlink ref="B210" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{457740B1-8A7A-4E0B-8C26-502BBDC20C1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
